--- a/tools/yolov4-tiny.xlsx
+++ b/tools/yolov4-tiny.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maruyama/Projects/private/public/yolo_various_platforms/tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{72D0C3D6-E209-3243-88A2-46304C34C0C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{351F1729-2627-4841-A82C-CD47B0EEB1A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="520" yWindow="920" windowWidth="22700" windowHeight="15940"/>
+    <workbookView xWindow="520" yWindow="920" windowWidth="22700" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="yolov4-tiny" sheetId="1" r:id="rId1"/>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19">
     <font>
       <sz val="12"/>
@@ -311,7 +311,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -493,12 +493,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -613,6 +625,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="3"/>
+      </left>
+      <right style="thin">
+        <color theme="3"/>
+      </right>
+      <top style="thin">
+        <color theme="3"/>
+      </top>
+      <bottom style="thin">
+        <color theme="3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="3"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="3"/>
+      </top>
+      <bottom style="thin">
+        <color theme="3"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -742,17 +782,26 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1109,11 +1158,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1156,11 +1205,11 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
     </row>
     <row r="2" spans="1:14" ht="20" customHeight="1">
       <c r="A2" t="s">
@@ -1190,11 +1239,11 @@
       <c r="I2">
         <v>0</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="1"/>
-      <c r="N2" s="2" t="s">
+      <c r="M2" s="4"/>
+      <c r="N2" s="3" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1226,11 +1275,11 @@
       <c r="I3">
         <v>1</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="M3" s="1"/>
-      <c r="N3" s="2"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="3"/>
     </row>
     <row r="4" spans="1:14" ht="20" customHeight="1">
       <c r="A4" t="s">
@@ -1263,10 +1312,10 @@
       <c r="L4" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="M4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="N4" s="2"/>
+      <c r="N4" s="3"/>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" t="s">
@@ -1281,8 +1330,8 @@
       <c r="L5" t="s">
         <v>24</v>
       </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="3"/>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" t="s">
@@ -1315,8 +1364,8 @@
       <c r="L6" t="s">
         <v>24</v>
       </c>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="3"/>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
@@ -1349,8 +1398,8 @@
       <c r="L7" t="s">
         <v>27</v>
       </c>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="3"/>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
@@ -1365,8 +1414,8 @@
       <c r="L8" t="s">
         <v>25</v>
       </c>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="3"/>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="s">
@@ -1399,8 +1448,8 @@
       <c r="L9" t="s">
         <v>26</v>
       </c>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="3"/>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="s">
@@ -1415,8 +1464,8 @@
       <c r="L10" t="s">
         <v>25</v>
       </c>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="3"/>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
@@ -1431,8 +1480,8 @@
       <c r="I11">
         <v>9</v>
       </c>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="3"/>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" t="s">
@@ -1465,10 +1514,10 @@
       <c r="L12" t="s">
         <v>27</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="N12" s="2"/>
+      <c r="N12" s="3"/>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" t="s">
@@ -1483,8 +1532,8 @@
       <c r="L13" t="s">
         <v>23</v>
       </c>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="3"/>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" t="s">
@@ -1517,8 +1566,8 @@
       <c r="L14" t="s">
         <v>24</v>
       </c>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="3"/>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" t="s">
@@ -1551,8 +1600,8 @@
       <c r="L15" t="s">
         <v>24</v>
       </c>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="3"/>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" t="s">
@@ -1567,8 +1616,8 @@
       <c r="L16" t="s">
         <v>25</v>
       </c>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="3"/>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" t="s">
@@ -1601,8 +1650,8 @@
       <c r="L17" t="s">
         <v>24</v>
       </c>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="3"/>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" t="s">
@@ -1617,8 +1666,8 @@
       <c r="L18" t="s">
         <v>25</v>
       </c>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="3"/>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" t="s">
@@ -1633,8 +1682,8 @@
       <c r="I19">
         <v>17</v>
       </c>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="3"/>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" t="s">
@@ -1667,10 +1716,10 @@
       <c r="L20" t="s">
         <v>27</v>
       </c>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="N20" s="2"/>
+      <c r="N20" s="3"/>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" t="s">
@@ -1685,8 +1734,8 @@
       <c r="L21" t="s">
         <v>23</v>
       </c>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="3"/>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" t="s">
@@ -1719,8 +1768,8 @@
       <c r="L22" t="s">
         <v>24</v>
       </c>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="3"/>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" t="s">
@@ -1753,8 +1802,8 @@
       <c r="L23" t="s">
         <v>24</v>
       </c>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="3"/>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" t="s">
@@ -1769,8 +1818,8 @@
       <c r="L24" t="s">
         <v>25</v>
       </c>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="3"/>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" t="s">
@@ -1797,14 +1846,14 @@
       <c r="H25">
         <v>1</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I25" s="6">
         <v>23</v>
       </c>
       <c r="L25" t="s">
         <v>24</v>
       </c>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="3"/>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" t="s">
@@ -1819,8 +1868,8 @@
       <c r="L26" t="s">
         <v>25</v>
       </c>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="3"/>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" t="s">
@@ -1835,8 +1884,8 @@
       <c r="I27">
         <v>25</v>
       </c>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="3"/>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" t="s">
@@ -1866,11 +1915,11 @@
       <c r="I28">
         <v>26</v>
       </c>
-      <c r="L28" s="1" t="s">
+      <c r="L28" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="M28" s="1"/>
-      <c r="N28" s="2"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="3"/>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" t="s">
@@ -1897,14 +1946,14 @@
       <c r="H29">
         <v>1</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="6">
         <v>27</v>
       </c>
-      <c r="L29" s="1" t="s">
+      <c r="L29" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" t="s">
@@ -1934,11 +1983,11 @@
       <c r="I30">
         <v>28</v>
       </c>
-      <c r="L30" s="1" t="s">
+      <c r="L30" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" t="s">
@@ -1965,9 +2014,9 @@
       <c r="I31">
         <v>29</v>
       </c>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" t="s">
@@ -1976,9 +2025,9 @@
       <c r="I32">
         <v>30</v>
       </c>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" t="s">
@@ -2084,11 +2133,11 @@
       <c r="I37">
         <v>35</v>
       </c>
-      <c r="L37" s="1" t="s">
+      <c r="L37" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" t="s">
@@ -2115,9 +2164,9 @@
       <c r="I38">
         <v>36</v>
       </c>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" t="s">
@@ -2126,9 +2175,9 @@
       <c r="I39">
         <v>37</v>
       </c>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="12">
